--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>291.3733697458301</v>
+        <v>521.2578653017329</v>
       </c>
       <c r="R2">
-        <v>291.3733697458301</v>
+        <v>4691.320787715596</v>
       </c>
       <c r="S2">
-        <v>0.0003313075028246507</v>
+        <v>0.0004533835062138629</v>
       </c>
       <c r="T2">
-        <v>0.0003313075028246507</v>
+        <v>0.0004722677190893158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>1298.168720836743</v>
+        <v>2004.030039906287</v>
       </c>
       <c r="R3">
-        <v>1298.168720836743</v>
+        <v>18036.27035915659</v>
       </c>
       <c r="S3">
-        <v>0.001476089038338232</v>
+        <v>0.001743080011895217</v>
       </c>
       <c r="T3">
-        <v>0.001476089038338232</v>
+        <v>0.001815682331018951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>2223.416989187779</v>
+        <v>3386.870422679369</v>
       </c>
       <c r="R4">
-        <v>2223.416989187779</v>
+        <v>30481.83380411433</v>
       </c>
       <c r="S4">
-        <v>0.002528147068032626</v>
+        <v>0.002945857107475085</v>
       </c>
       <c r="T4">
-        <v>0.002528147068032626</v>
+        <v>0.00306855718799364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>4851.476376454508</v>
+        <v>7819.323503173255</v>
       </c>
       <c r="R5">
-        <v>4851.476376454508</v>
+        <v>70373.9115285593</v>
       </c>
       <c r="S5">
-        <v>0.005516394736753154</v>
+        <v>0.006801148801921723</v>
       </c>
       <c r="T5">
-        <v>0.005516394736753154</v>
+        <v>0.007084428497836684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>792.683477537073</v>
+        <v>1684.324965010826</v>
       </c>
       <c r="R6">
-        <v>792.683477537073</v>
+        <v>10105.94979006495</v>
       </c>
       <c r="S6">
-        <v>0.0009013245915447158</v>
+        <v>0.001465004576570005</v>
       </c>
       <c r="T6">
-        <v>0.0009013245915447158</v>
+        <v>0.001017349712917237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>23101.95416521423</v>
+        <v>30747.79479326125</v>
       </c>
       <c r="R7">
-        <v>23101.95416521423</v>
+        <v>276730.1531393512</v>
       </c>
       <c r="S7">
-        <v>0.02626818899586894</v>
+        <v>0.02674404347576335</v>
       </c>
       <c r="T7">
-        <v>0.02626818899586894</v>
+        <v>0.02785797947745913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>102927.1628826142</v>
+        <v>118213.0928439821</v>
       </c>
       <c r="R8">
-        <v>102927.1628826142</v>
+        <v>1063917.835595839</v>
       </c>
       <c r="S8">
-        <v>0.1170338296091076</v>
+        <v>0.1028202547753697</v>
       </c>
       <c r="T8">
-        <v>0.1170338296091076</v>
+        <v>0.1071028975104375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>176286.7945659602</v>
+        <v>199783.645830706</v>
       </c>
       <c r="R9">
-        <v>176286.7945659602</v>
+        <v>1798052.812476354</v>
       </c>
       <c r="S9">
-        <v>0.2004477545067288</v>
+        <v>0.1737692912863428</v>
       </c>
       <c r="T9">
-        <v>0.2004477545067288</v>
+        <v>0.1810070849927596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>384656.2401369751</v>
+        <v>461243.7921843606</v>
       </c>
       <c r="R10">
-        <v>384656.2401369751</v>
+        <v>4151194.129659246</v>
       </c>
       <c r="S10">
-        <v>0.4373752428949428</v>
+        <v>0.4011840235712766</v>
       </c>
       <c r="T10">
-        <v>0.4373752428949428</v>
+        <v>0.4178940370576893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>62849.04273015212</v>
+        <v>99354.43057409082</v>
       </c>
       <c r="R11">
-        <v>62849.04273015212</v>
+        <v>596126.5834445449</v>
       </c>
       <c r="S11">
-        <v>0.07146280876666994</v>
+        <v>0.08641722857359321</v>
       </c>
       <c r="T11">
-        <v>0.07146280876666994</v>
+        <v>0.06001110446104273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>945.8138070886957</v>
+        <v>1267.20160805861</v>
       </c>
       <c r="R12">
-        <v>945.8138070886957</v>
+        <v>11404.81447252749</v>
       </c>
       <c r="S12">
-        <v>0.001075442175230278</v>
+        <v>0.001102195950192309</v>
       </c>
       <c r="T12">
-        <v>0.001075442175230278</v>
+        <v>0.001148104331658827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>4213.926280116522</v>
+        <v>4871.888288336904</v>
       </c>
       <c r="R13">
-        <v>4213.926280116522</v>
+        <v>43846.99459503213</v>
       </c>
       <c r="S13">
-        <v>0.004791465308481764</v>
+        <v>0.004237506886864614</v>
       </c>
       <c r="T13">
-        <v>0.004791465308481764</v>
+        <v>0.004414006430884202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>7217.3324869181</v>
+        <v>8233.636231888957</v>
       </c>
       <c r="R14">
-        <v>7217.3324869181</v>
+        <v>74102.72608700061</v>
       </c>
       <c r="S14">
-        <v>0.00820650289826386</v>
+        <v>0.007161512779365832</v>
       </c>
       <c r="T14">
-        <v>0.00820650289826386</v>
+        <v>0.007459802262733204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>15748.15620802277</v>
+        <v>19009.13151960969</v>
       </c>
       <c r="R15">
-        <v>15748.15620802277</v>
+        <v>171082.1836764872</v>
       </c>
       <c r="S15">
-        <v>0.01790651737296323</v>
+        <v>0.01653390245431074</v>
       </c>
       <c r="T15">
-        <v>0.01790651737296323</v>
+        <v>0.01722256829532591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>2573.093685121769</v>
+        <v>4094.67069224842</v>
       </c>
       <c r="R16">
-        <v>2573.093685121769</v>
+        <v>24568.02415349052</v>
       </c>
       <c r="S16">
-        <v>0.002925748650589478</v>
+        <v>0.003561492840339425</v>
       </c>
       <c r="T16">
-        <v>0.002925748650589478</v>
+        <v>0.00247322348108922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>2404.148485313273</v>
+        <v>5907.350001509649</v>
       </c>
       <c r="R17">
-        <v>2404.148485313273</v>
+        <v>53166.15001358684</v>
       </c>
       <c r="S17">
-        <v>0.002733648691998237</v>
+        <v>0.005138138404044163</v>
       </c>
       <c r="T17">
-        <v>0.002733648691998237</v>
+        <v>0.005352150819748894</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>10711.30957027136</v>
+        <v>22711.42105915851</v>
       </c>
       <c r="R18">
-        <v>10711.30957027136</v>
+        <v>204402.7895324266</v>
       </c>
       <c r="S18">
-        <v>0.01217934648181476</v>
+        <v>0.01975410712496432</v>
       </c>
       <c r="T18">
-        <v>0.01217934648181476</v>
+        <v>0.02057690010044667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>18345.61817175846</v>
+        <v>38382.97765530417</v>
       </c>
       <c r="R19">
-        <v>18345.61817175846</v>
+        <v>345446.7988977375</v>
       </c>
       <c r="S19">
-        <v>0.02085997409290289</v>
+        <v>0.03338502907426979</v>
       </c>
       <c r="T19">
-        <v>0.02085997409290289</v>
+        <v>0.03477557369543716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>40029.97800437511</v>
+        <v>88615.41241499882</v>
       </c>
       <c r="R20">
-        <v>40029.97800437511</v>
+        <v>797538.7117349894</v>
       </c>
       <c r="S20">
-        <v>0.04551628057953299</v>
+        <v>0.07707656624431579</v>
       </c>
       <c r="T20">
-        <v>0.04551628057953299</v>
+        <v>0.08028693950385826</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N21">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O21">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P21">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q21">
-        <v>6540.504314158881</v>
+        <v>19088.24354878538</v>
       </c>
       <c r="R21">
-        <v>6540.504314158881</v>
+        <v>114529.4612927123</v>
       </c>
       <c r="S21">
-        <v>0.007436912142753722</v>
+        <v>0.01660271309786929</v>
       </c>
       <c r="T21">
-        <v>0.007436912142753722</v>
+        <v>0.01152949668137602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N22">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O22">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P22">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q22">
-        <v>352.9851767485042</v>
+        <v>431.652166216278</v>
       </c>
       <c r="R22">
-        <v>352.9851767485042</v>
+        <v>2589.912997297668</v>
       </c>
       <c r="S22">
-        <v>0.0004013635067085212</v>
+        <v>0.0003754456011338284</v>
       </c>
       <c r="T22">
-        <v>0.0004013635067085212</v>
+        <v>0.000260722376324459</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N23">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P23">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q23">
-        <v>1572.670542176393</v>
+        <v>1659.531616635286</v>
       </c>
       <c r="R23">
-        <v>1572.670542176393</v>
+        <v>9957.189699811717</v>
       </c>
       <c r="S23">
-        <v>0.001788212665244117</v>
+        <v>0.001443439635366141</v>
       </c>
       <c r="T23">
-        <v>0.001788212665244117</v>
+        <v>0.001002374273868306</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N24">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O24">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P24">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q24">
-        <v>2693.565440104216</v>
+        <v>2804.657832447542</v>
       </c>
       <c r="R24">
-        <v>2693.565440104216</v>
+        <v>16827.94699468525</v>
       </c>
       <c r="S24">
-        <v>0.003062731643712545</v>
+        <v>0.002439455951555139</v>
       </c>
       <c r="T24">
-        <v>0.003062731643712545</v>
+        <v>0.001694042361150449</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N25">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O25">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P25">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q25">
-        <v>5877.336174297017</v>
+        <v>6475.159711090062</v>
       </c>
       <c r="R25">
-        <v>5877.336174297017</v>
+        <v>38850.95826654037</v>
       </c>
       <c r="S25">
-        <v>0.006682853593881662</v>
+        <v>0.005632012116324409</v>
       </c>
       <c r="T25">
-        <v>0.006682853593881662</v>
+        <v>0.003911063488350296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N26">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O26">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P26">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q26">
-        <v>960.2988690013841</v>
+        <v>1394.784746966316</v>
       </c>
       <c r="R26">
-        <v>960.2988690013841</v>
+        <v>5579.138987865264</v>
       </c>
       <c r="S26">
-        <v>0.001091912485110483</v>
+        <v>0.001213166152662563</v>
       </c>
       <c r="T26">
-        <v>0.001091912485110483</v>
+        <v>0.0005616429495038692</v>
       </c>
     </row>
   </sheetData>
